--- a/data/trans_camb/P19_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,02</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,23</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,47</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 0,91</t>
+          <t>-5,79; 18,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -1,14</t>
+          <t>-1,53; 20,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,23; 6,4</t>
+          <t>-18,62; 13,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 3,38</t>
+          <t>0,09; 22,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 5,76</t>
+          <t>-5,73; 9,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; -0,71</t>
+          <t>-6,61; 8,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 0,53</t>
+          <t>-0,93; 14,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,68</t>
+          <t>0,85; 16,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -0,14</t>
+          <t>-3,13; 10,07</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 11,46</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 10,49</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 15,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-25,19%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-33,19%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-26,06%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,58%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,34%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,54%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,11%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,87; 4,88</t>
+          <t>-7,01; 26,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -5,33</t>
+          <t>-1,75; 31,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-51,56; 35,93</t>
+          <t>-22,54; 18,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 18,09</t>
+          <t>0,14; 33,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 30,09</t>
+          <t>-6,95; 13,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,33; -3,24</t>
+          <t>-8,02; 11,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 3,09</t>
+          <t>-1,06; 19,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 3,28</t>
+          <t>1,09; 22,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,43; -0,41</t>
+          <t>-3,83; 13,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 15,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 14,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 21,87</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>2,09</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,72</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 18,54</t>
+          <t>-14,14; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 4,91</t>
+          <t>-10,75; 5,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 3,62</t>
+          <t>-10,3; 5,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 5,64</t>
+          <t>-6,55; 9,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 1,74</t>
+          <t>-7,0; 10,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 3,83</t>
+          <t>-4,16; 13,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 9,05</t>
+          <t>-2,88; 14,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,72</t>
+          <t>-0,22; 16,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 1,53</t>
+          <t>-7,54; 4,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 7,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 7,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 11,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-18,8%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,1%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,22%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,69%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,52%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-19,1%</t>
+          <t>-1,52%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 163,27</t>
+          <t>-15,3; 2,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 47,08</t>
+          <t>-11,72; 6,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; 34,67</t>
+          <t>-11,13; 6,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 36,98</t>
+          <t>-6,99; 11,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 10,51</t>
+          <t>-8,68; 14,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,94; 26,33</t>
+          <t>-4,99; 18,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 57,03</t>
+          <t>-3,32; 19,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 5,29</t>
+          <t>-0,29; 22,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-39,59; 10,65</t>
+          <t>-8,75; 5,75</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 9,54</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 9,72</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 13,75</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-20,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>-36,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,66</t>
+          <t>-10,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>17,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,98</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>24,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,46</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-11,74</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 13,67</t>
+          <t>-39,89; -7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 12,47</t>
+          <t>-23,3; -2,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 40,15</t>
+          <t>-74,88; -11,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 0,21</t>
+          <t>-26,47; -2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 13,37</t>
+          <t>-3,2; 36,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 1,15</t>
+          <t>-19,77; 23,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 3,6</t>
+          <t>-12,79; 30,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 9,09</t>
+          <t>6,1; 41,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 17,73</t>
+          <t>-15,37; 14,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-15,92; 13,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; 4,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 20,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>143,72%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-47,77%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-41,88%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-29,83%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>36,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,38%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,87; 313,3</t>
+          <t>-39,89; -7,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,99; 335,62</t>
+          <t>-23,3; -2,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 1190,69</t>
+          <t>-74,88; -11,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,2; 5,66</t>
+          <t>-26,47; -2,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 70,19</t>
+          <t>-4,0; 64,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 10,14</t>
+          <t>-25,87; 43,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 25,45</t>
+          <t>-15,29; 53,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 59,99</t>
+          <t>9,07; 81,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 125,42</t>
+          <t>-17,77; 19,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 17,98</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-43,51; 5,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 28,83</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,41</t>
+          <t>-8,27; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,56</t>
+          <t>-3,39; 10,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 3,92</t>
+          <t>-14,35; 4,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,02</t>
+          <t>-1,21; 12,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,64</t>
+          <t>-2,42; 9,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -2,0</t>
+          <t>-3,18; 8,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,74</t>
+          <t>0,37; 12,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,12</t>
+          <t>4,15; 15,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -0,63</t>
+          <t>-3,39; 5,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 7,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 6,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 11,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 31,96</t>
+          <t>-9,46; 6,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -2,77</t>
+          <t>-3,89; 13,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 23,55</t>
+          <t>-16,71; 5,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 5,99</t>
+          <t>-1,39; 16,41</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 8,34</t>
+          <t>-2,95; 12,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -10,67</t>
+          <t>-4,07; 11,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 9,64</t>
+          <t>0,58; 17,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -0,62</t>
+          <t>5,21; 20,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -3,08</t>
+          <t>-4,1; 6,88</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 9,2</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 7,96</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 15,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
